--- a/Price List/Stepper_Motor_Controller_Nema11.xlsx
+++ b/Price List/Stepper_Motor_Controller_Nema11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm-Offline\Price List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAF8C5-51D2-4C42-9256-4FA5CD3F4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8B548-AF3E-44A0-857B-11F733C96CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="0" windowWidth="37680" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24885" yWindow="120" windowWidth="32880" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Stepper-Motor Driv" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>Comment</t>
   </si>
@@ -59,21 +59,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>100uF 25 V dc Aluminium Electrolytic Capacitor; WT Series 1000h 6.3(Dia.)x7.7mm</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>PCB-i2lbf4zom8ks3vbq1kyd-1</t>
-  </si>
-  <si>
-    <t>CMP-3b00f20907dbe4c7-1</t>
-  </si>
-  <si>
     <t>0.33uF</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts .22uF 5% X7R 7inch reel</t>
   </si>
   <si>
-    <t>C7, C8</t>
-  </si>
-  <si>
     <t>CAPC2013X140X50LL20T25</t>
   </si>
   <si>
@@ -140,36 +125,9 @@
     <t>CMP-2fd8e4750972f01f-1</t>
   </si>
   <si>
-    <t>Yageo RC0402JR-1310KL</t>
-  </si>
-  <si>
-    <t>YAGEO   RC0402JR-1310KL   THICK FILM RESISTOR, 10KOHM, 62.5mW, 5%</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RESC1005X40X25LL05T10</t>
-  </si>
-  <si>
-    <t>CMP-3759243-2</t>
-  </si>
-  <si>
-    <t>Potentiometer 10k</t>
-  </si>
-  <si>
-    <t>Res Conductive Plastic POT 10K Ohm 20% 3/100W 1Turn 6mm Pin Bracket Mount/Through Hole</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>PCB-obt52c5d0m95txgvi4qh-1</t>
-  </si>
-  <si>
-    <t>CMP-1577701-10</t>
-  </si>
-  <si>
     <t>20k</t>
   </si>
   <si>
@@ -197,21 +155,9 @@
     <t>CMP-86ed4a8b7141592a-1</t>
   </si>
   <si>
-    <t>5k</t>
-  </si>
-  <si>
-    <t>Res Thin Film 0603 10K Ohm 0.5% 1/16W ±25ppm/°C Molded SMD SMD Paper T/R</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>RESC1608X55X30NL20T20</t>
-  </si>
-  <si>
-    <t>CMP-22beeaeef4a5fd79-1</t>
-  </si>
-  <si>
     <t>A4988</t>
   </si>
   <si>
@@ -248,9 +194,6 @@
     <t>Links</t>
   </si>
   <si>
-    <t>https://www.arrow.com/en/products/uwt1e101mcl1gs/nichicon?utm_campaign=octopart_2020&amp;utm_currency=EUR&amp;utm_keyword=UWT1E101MCL1GS&amp;utm_medium=aggregator&amp;utm_content=inv_listing&amp;region=nac&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/de/products/detail/CL31B334KBFNNNE/1276-1138-1-ND/3889224?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
@@ -260,36 +203,21 @@
     <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1441425?cm_mmc=aff2-_-at-_-octopart-_-Instock1441425</t>
   </si>
   <si>
-    <t>2/ buy. 100</t>
-  </si>
-  <si>
     <t>https://www.mouser.at/ProductDetail/Vishay-Dale/CRCW080550R0FKTA?qs=aRXG1QX2Yl9J6LSLM7CpJQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.at/de/products/detail/te-connectivity-passive-product/CRGH2512J10K/2386138</t>
-  </si>
-  <si>
     <t>https://at.farnell.com/on-semiconductor/mc78l05acht1g/lin-spannungsregler-5v-0-1a-sot/dp/2845173?CMP=GRHB-OCTOPART</t>
   </si>
   <si>
-    <t>1/ buy. 5</t>
-  </si>
-  <si>
     <t>https://at.farnell.com/allegro-microsystems/a4988settr-t/motor-driver-stepper-2a-qfn-28/dp/2057418?CMP=GRHB-OCTOPART</t>
   </si>
   <si>
-    <t>https://www.digikey.at/de/products/detail/P090L-02F25BR10K/987-1274-ND/2408851?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/de/products/detail/TNPW080520K0BEEA/TNP20.0KABCT-ND/1857107?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
     <t>https://www.digikey.at/de/products/detail/CRGCQ0402F100K/A129651CT-ND/8577483?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
-    <t>https://www.mouser.at/ProductDetail/Vishay-Dale/TNPW02015K00BEED?qs=sGAEpiMZZMtlubZbdhIBICIdKqKHY0hXivjxIjQMJ0k%3D</t>
-  </si>
-  <si>
     <t>JLCPCB - 2 Layer - Black PCB + SMD Stencil</t>
   </si>
   <si>
@@ -306,6 +234,90 @@
   </si>
   <si>
     <t>Preis pro 3 Stück (Robot Arm)</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.47uF 10V X5R 20% SMD 0402 85°C T/R</t>
+  </si>
+  <si>
+    <t>PCB-ab16gx9rkhzdcptx7kd3-1</t>
+  </si>
+  <si>
+    <t>CMP-c29e0abbad7d1d59-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/0402ZD474MAT2A/478-13018-1-ND/9948536?curr=usd&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>1Ohm No short circuit</t>
+  </si>
+  <si>
+    <t>RESC1005X40X25ML05T05</t>
+  </si>
+  <si>
+    <t>CMP-2002-08342-1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/rohm-semiconductor/KTR03EZPF1R00/2288554</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>FP-CRCW0402-e3-IPC_B</t>
+  </si>
+  <si>
+    <t>CMP-2002-08135-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/te-connectivity-passive-product/352210KFT/5244971</t>
+  </si>
+  <si>
+    <t>100kOhm</t>
+  </si>
+  <si>
+    <t>Chip Resistor, 100 KOhm, +/- 1%, 0.125 W, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>RESC2013X60X35ML10T20</t>
+  </si>
+  <si>
+    <t>CMP-2100-03668-1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/bourns-inc./CR0805-JW-104ELF/3925418</t>
+  </si>
+  <si>
+    <t>1/buy. 5</t>
+  </si>
+  <si>
+    <t>Panasonic ERJ-3GEYJ161V</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 160ohms 5% Tol</t>
+  </si>
+  <si>
+    <t>RESC1608X55X30NL15T15</t>
+  </si>
+  <si>
+    <t>CMP-3677770-2</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/smd-widerstand-0603-160-ohm-100-mw-0-1--spr-0603-160-p123068.html?r=1</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -442,17 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -470,22 +471,23 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -807,7 +809,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,410 +841,436 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
-        <v>0.33</v>
+      <c r="G2" s="4">
+        <v>0.46</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f>0.18*F4</f>
+        <v>0.54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G5" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <f>0.578*F7</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="G12" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="6">
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="G14" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="F15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4">
+        <f>5.72/5</f>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G18" s="5">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(G2:G15)+G18</f>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2.17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="F23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5.73</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="F21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUM(G2:G17)</f>
-        <v>25.874000000000002</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="F22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="8">
-        <f>SUM(G7:G13)*3 + SUM(G2:G5)*3 + G17 + G14 + G6</f>
-        <v>43.121999999999993</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>86</v>
+      <c r="G23" s="6">
+        <f>SUM(G2:G15)*3 + G18</f>
+        <v>39.81</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{28ECB09C-D43D-4696-B220-38E8927273ED}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{DB9A2DBE-EF2D-40CD-B46C-360DFF02377C}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{DB20AF5B-8864-4713-8F59-766B74D6276C}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{94B00D36-874D-4A45-B438-AB718674E03D}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{1F8445F0-C6A3-4FC1-9DD9-C4E1C5CA4471}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{99CE81B8-B07F-4A30-93A0-5AE12DFF5914}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{D03AC246-0B5A-40F0-A983-4A5F770C1D0D}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{C0BFA381-3D60-4446-835B-5A93B58F2F92}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{E8793580-48DC-4646-93DC-41DE36C93371}"/>
-    <hyperlink ref="H9" r:id="rId10" xr:uid="{4DF372E1-EC2E-4B12-B459-B66BE4DB5DA3}"/>
-    <hyperlink ref="H10" r:id="rId11" xr:uid="{D135066A-A7F9-4800-858B-464E5450D92B}"/>
-    <hyperlink ref="H11" r:id="rId12" xr:uid="{454F018D-7FA5-438C-835D-32316EBA1913}"/>
-    <hyperlink ref="H12" r:id="rId13" xr:uid="{D1373C10-0F76-45FB-87C2-ADDAE081CC99}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{9BA1B150-DFB7-477F-BDC7-E4C4555E3899}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{CFEE7FD5-1ED8-46A5-B781-10D542ED6DA2}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{BC46A5CD-96B0-484C-9C60-B781345B8EF5}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{5EB539A5-0AAB-43A3-B8A0-4F4F604FC917}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{882F6C42-B102-4C3D-8106-C2382C7EEC04}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{F7078326-A07C-4B0D-AB93-93547D490E6E}"/>
+    <hyperlink ref="H14" r:id="rId7" xr:uid="{A1FEED08-BEF0-42FF-87A8-6C748E6619DE}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{11D0D5C3-971E-4EC7-995E-91FA1D19124C}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{9D28B561-49CA-4455-836B-3B008A06DB7D}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{C23CA913-AC1C-4F66-A8AB-E7588BEC5BD1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Price List/Stepper_Motor_Controller_Nema11.xlsx
+++ b/Price List/Stepper_Motor_Controller_Nema11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8B548-AF3E-44A0-857B-11F733C96CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27415698-495C-45A6-B0F0-9960A81F1A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24885" yWindow="120" windowWidth="32880" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="945" windowWidth="26025" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Stepper-Motor Driv" sheetId="1" r:id="rId1"/>
@@ -356,6 +356,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -374,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +404,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -476,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -488,6 +507,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -809,7 +831,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -848,7 +870,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -874,7 +896,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -900,7 +922,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -927,7 +949,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -953,7 +975,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -979,7 +1001,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1006,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1032,7 +1054,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1058,7 +1080,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1084,7 +1106,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1110,7 +1132,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1136,7 +1158,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1162,7 +1184,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1188,7 +1210,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
